--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Descrição Final</t>
   </si>
   <si>
+    <t>Concentração</t>
+  </si>
+  <si>
     <t>Laboratório Original</t>
   </si>
   <si>
@@ -53,6 +56,15 @@
   </si>
   <si>
     <t>CLORETO DE SÓDIO;GLICOSE</t>
+  </si>
+  <si>
+    <t>1000ML</t>
+  </si>
+  <si>
+    <t>250ML</t>
+  </si>
+  <si>
+    <t>500ML</t>
   </si>
   <si>
     <t>JP</t>
@@ -416,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,73 +459,88 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -58,13 +58,13 @@
     <t>CLORETO DE SÓDIO;GLICOSE</t>
   </si>
   <si>
-    <t>1000ML</t>
-  </si>
-  <si>
-    <t>250ML</t>
-  </si>
-  <si>
-    <t>500ML</t>
+    <t>1000ml</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
   </si>
   <si>
     <t>JP</t>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Item</t>
   </si>
@@ -43,34 +43,145 @@
     <t>Tempo Decorrido</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+    <t>HEPARINA SODICA SUBCUT 5000UI</t>
+  </si>
+  <si>
+    <t>PROMETAZINA 25MG, CLORIDRATO</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5MG</t>
+  </si>
+  <si>
+    <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
+  </si>
+  <si>
+    <t>CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CODEINA 30MG</t>
+  </si>
+  <si>
+    <t>IMIPRAMINA 25MG</t>
+  </si>
+  <si>
+    <t>RISPERIDONA 3MG</t>
+  </si>
+  <si>
+    <t>RISPERIDONA 1MG</t>
+  </si>
+  <si>
+    <t>LEVOMEPROMAZINA 4% GOTAS</t>
+  </si>
+  <si>
+    <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO +SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
+  </si>
+  <si>
+    <t>sodica;heparina</t>
+  </si>
+  <si>
+    <t>PROMETAZINA</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL</t>
+  </si>
+  <si>
+    <t>clorpromazina</t>
+  </si>
+  <si>
+    <t>codeina</t>
+  </si>
+  <si>
+    <t>imipramina</t>
+  </si>
+  <si>
+    <t>RISPERIDONA</t>
+  </si>
+  <si>
+    <t>levomepromazina</t>
+  </si>
+  <si>
+    <t>LIDOCAÍNA</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO;SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE</t>
+  </si>
+  <si>
+    <t>5000ui</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>2mg/ml</t>
+  </si>
+  <si>
+    <t>30mg</t>
+  </si>
+  <si>
+    <t>3mg</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>Cellera</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Vitamedic</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
   </si>
 </sst>
 </file>
@@ -428,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,82 +576,282 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="176">
   <si>
     <t>Item</t>
   </si>
@@ -40,34 +40,508 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
+    <t>Miconazol, nitrato 2 % creme vaginal 80 g Principio Ativo: Miconazol nitrato, dosagem:2%, apresentação:creme vaginal, Caracteristica Adicional: com aplicador</t>
+  </si>
+  <si>
+    <t>Neomicina + bacitracina 5 + 250 mg + ui/g pomada 50 g Principio Ativo: Neomicina, composição:associada com bacitracina, concentração:5mg + 250ui/g, tipo medicamento:pomada</t>
+  </si>
+  <si>
+    <t>Nifedipino 20 mg comprimido Principio Ativo: Nifedipino, dosagem:20 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Nimesulida 100 mg comprimido Principio Ativo: Nimesulida, dosagem:100 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Nistatina 100.000 ui/ml suspensão oral 50 ml Principio Ativo: Nistatina,dosagem:100.000 ui/ml, apresentação:suspensão oral</t>
+  </si>
+  <si>
+    <t>Nistatina 25.000 ui/g creme vaginal 60 g Principio Ativo: Nistatina, dosagem:25.000 ui/g, apresentação:creme vaginal</t>
+  </si>
+  <si>
+    <t>Nitroprusseto de sódio 25 mg/ml solução 2 ml Principio Ativo: Nitroprusseto de sódio, concentração:25 mg/ml, forma farmaceutica:solução injetável</t>
+  </si>
+  <si>
+    <t>Norepinefrina 2 mg/ml solução injetável 4 ml Principio Ativo: Norepinefrina, concentração:2 mg/ml, forma farmacêutica:solução injetável</t>
+  </si>
+  <si>
+    <t>Óleo mineral (petrolato) solução oral 100 ml Principio Ativo: Petrolato, Oleo Mineral, Aspecto físico:líquido, tipo:laxativo, uso:oral</t>
+  </si>
+  <si>
+    <t>Omeprazol 20 mg cápsula Principio Ativo: Omeprazol, concentração:20 mg, Unidade: Cápsula</t>
+  </si>
+  <si>
+    <t>Ondansetrona, cloridrato 2 mg/ml solução injetável 2 ml Principio Ativo: Ondansetrona cloridrato, dosagem:2 mg/ml, indicação:injetável, Unidade: Ampola</t>
+  </si>
+  <si>
+    <t>Ondansetrona, cloridrato 4 mg amp 2 ml Principio Ativo: Ondansetrona cloridrato, dosagem:4 mg/ml, indicação:injetável</t>
+  </si>
+  <si>
+    <t>Ondansetrona, cloridrato 4 mg comprimido Principio Ativo:Ondansetrona cloridrato, dosagem:4 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Paracetamol 200 mg/ml solução oral 15 ml Principio Ativo: Paracetamol, dosagem solução oral:200 mg/ml, apresentação:solução oral</t>
+  </si>
+  <si>
+    <t>Paracetamol 500 mg comprimido Principio Ativo: Paracetamol, dosagem: 500mg, Unidade: comprimido</t>
+  </si>
+  <si>
+    <t>Peróxido de benzoíla 5 % gel 20 g Principio Ativo: Peróxido de benzoíla, concentração:5%, forma farmacêutica:gel tópico</t>
+  </si>
+  <si>
+    <t>Piperacilina sódica + tazobactam sódica 4g + 500mg pó para solução injetável Principio Ativo: Piperacilina, composição:associada com tazobactama, concentração:4g + 500mg, aplicação:injetável</t>
+  </si>
+  <si>
+    <t>Polimixina b + neomicina + fluocinolona + lidocaína solução otológica 10ml Principio Ativo: Polimixina b, composição:associada com neomicina, fluocinolona e lidocaína, concentração:10.000 ui + 3,5 mg + 0,25 mg +20 mg/ml, forma farmacêutica:solução otológica</t>
+  </si>
+  <si>
+    <t>Prednisolona 3 mg/ml solução oral 60 ml Prednisolona, composição:fosfato sódico, concentração:3 mg/ml, forma farmaceutica:solução oral</t>
+  </si>
+  <si>
+    <t>Prednisona 20 mg comprimido Principio Ativo: Prednisona, dosagem:20 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Prometazina, cloridrato 25 mg comprimido Principio Ativo: Prometazina cloridrato, dosagem:25 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Propafenona, cloridrato 300mg Comprimido Principio Ativo: Propafenona cloridrato, dosagem:300 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Propranolol, cloridrato 40 mg comprimido Principio Ativo: Propranolol cloridrato, dosagem:40 mg</t>
+  </si>
+  <si>
+    <t>Salbutamol, sulfato 100 mcg/dose aerossol 200 doses Principio Ativo: Salbutamol, dosagem:100mcg/dose, forma farmacêutica:aerosol oral</t>
+  </si>
+  <si>
+    <t>Simeticona 75 mg/ml solução oral 15 ml Principio Ativo: Simeticona, concentração:75 mg/ml, forma farmacêutica:solução oral - gotas</t>
+  </si>
+  <si>
+    <t>Sinvastatina 20 mg comprimido Principio Ativo: Sinvastatina, dosagem:20 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Sinvastatina 40 mg comprimido Principio Ativo: Sinvastatina, dosagem:40 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Sulfametoxazol + trimetoprima 40 + 8 mg/ml suspensão oral 100 ml Principio Ativo: Sulfametoxazol, composição:associado à trimetoprima, concentração:40mg + 8mg/ml, forma farmacêutica:suspensão oral</t>
+  </si>
+  <si>
+    <t>Sulfametoxazol + trimetoprima 400 + 80 mg comprimido Principio Ativo: Sulfametoxazol, composição:associado à trimetoprima, concentração:400mg + 80mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Sulfato ferroso (40mg de ferro elementar) comprimido Principio Ativo: Sulfato ferroso, dosagem ferro:40mg de ferro ii, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Timolol, maleato 0,5 % solução oftálmica 5 ml Principio Ativo: Timolol, concentração:0,5%, indicação:solução oftálmica</t>
+  </si>
+  <si>
+    <t>Tramadol, cloridrato 50 mg/ml solução injetável 1 ml Tramadol, cloridrato 50 mg/ml solução injetável 1 ml</t>
+  </si>
+  <si>
+    <t>Tramadol, cloridrato 50 mg/ml solução injetável 2 ml Principio Ativo: Tramadol cloridrato, dosagem:50 mg/ml, forma farmacêutica:solução injetável 2ml</t>
+  </si>
+  <si>
+    <t>Amitriptilina, Cloridrato 75mg Comprimido Principio ativo: Amitriptilina, Cloridrato, Concentração: 75 mg, Forma Farmacêutica: Comprimido,Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Carvedilol 25mg comprimido Principio ativo: Carvedilol, Concentração: 25 mg, Forma: Comprimido, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Diazepam 5 mg comprimido Principio ativo: Diazepam,Concentração: 5 mg, Forma: Comprimido, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA, CLORIDRATO 25MG COMPRIMIDO NORTRIPTILINA CLORIDRATO, DOSAGEM:25 MG</t>
+  </si>
+  <si>
+    <t>Ondansetrona, cloridrato 8 mg comprimido Principio Ativo:Ondansetrona cloridrato, dosagem:8 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Rivaroxabana 10mg comprimido Principio Ativo: Rivaroxabana, concentração:10 mg, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Aciclovir 400mg Cpr Principio ativo: Aciclovir, Concentração: 400 mg, Forma Farmacêutica: Comprimido, Unidade: Comprimido</t>
+  </si>
+  <si>
+    <t>Cloreto De Sódio 0,9% Solução Injetável 100Ml Sistema Fechado - Bolsa/Frasco Especificação Técnica: Medicamentos Gerais de Uso Humano; Cloreto de Sodio 9mg/ml (0,9%); Forma Farmaceutica Solucao Injetavel; Forma de Apresentacao Bolsa OuEquiv. Isento de Pvc Em Sistema Fechado 100ml; Via de Administracao Intravenosa;</t>
+  </si>
+  <si>
+    <t>Cloreto De Sódio 0,9% Solução Injetável 500Ml Sistema Fechado - Bolsa/Frasco Especificação Técnica: Medicamentos Gerais de Uso Humano; Cloreto de Sodio 9mg/ml (0,9%); Forma Farmaceutica Solucao Injetavel; Forma de Apresentacao Bolsa Ou Equiv. Isento de Pvc Em Sistema Fechado500ml; Via de Administracao Intravenosa;</t>
+  </si>
+  <si>
+    <t>MICONAZOL</t>
+  </si>
+  <si>
+    <t>BACITRACINA;NEOMICINA</t>
+  </si>
+  <si>
+    <t>NIFEDIPINO</t>
+  </si>
+  <si>
+    <t>NIMESULIDA</t>
+  </si>
+  <si>
+    <t>NISTATINA</t>
+  </si>
+  <si>
+    <t>NITROPRUSSETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>EPINEFRINA</t>
+  </si>
+  <si>
+    <t>tipo;oleo</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL</t>
+  </si>
+  <si>
+    <t>ONDANSETRONA</t>
+  </si>
+  <si>
+    <t>PARACETAMOL</t>
+  </si>
+  <si>
+    <t>PERÓXIDO DE BENZOÍLA</t>
+  </si>
+  <si>
+    <t>PIPERACILINA SÓDICA;PIPERACILINA;TAZOBACTAM</t>
+  </si>
+  <si>
+    <t>LIDOCAÍNA;NEOMICINA</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA</t>
+  </si>
+  <si>
+    <t>PREDNISONA</t>
+  </si>
+  <si>
+    <t>PROMETAZINA</t>
+  </si>
+  <si>
+    <t>cloridrato;propafenona</t>
+  </si>
+  <si>
+    <t>cloridrato;propranolol</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>SIMETICONA</t>
+  </si>
+  <si>
+    <t>SINVASTATINA</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL;TRIMETOPRIMA</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO</t>
+  </si>
+  <si>
+    <t>TIMOL</t>
+  </si>
+  <si>
+    <t>cloridrato;tramadol</t>
+  </si>
+  <si>
+    <t>forma;cloridrato;tramadol</t>
+  </si>
+  <si>
+    <t>forma;cloridrato;amitriptilina</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>DIAZEPAM</t>
+  </si>
+  <si>
+    <t>cloridrato;nortriptilina</t>
+  </si>
+  <si>
+    <t>RIVAROXABANA</t>
+  </si>
+  <si>
+    <t>ACICLOVIR</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>80 g</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>000 ui/ml</t>
+  </si>
+  <si>
+    <t>000 ui</t>
+  </si>
+  <si>
+    <t>25 mg/ml</t>
+  </si>
+  <si>
+    <t>2 mg/ml</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>4 mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>20 g</t>
+  </si>
+  <si>
+    <t>4g</t>
+  </si>
+  <si>
+    <t>10ml</t>
+  </si>
+  <si>
+    <t>3 mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>75 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>5 ml</t>
+  </si>
+  <si>
+    <t>50 mg/ml</t>
+  </si>
+  <si>
+    <t>75mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>8 mg</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>400mg</t>
+  </si>
+  <si>
+    <t>100ml</t>
   </si>
   <si>
     <t>500ml</t>
   </si>
   <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>Legrand</t>
+  </si>
+  <si>
+    <t>Brainfarma</t>
+  </si>
+  <si>
+    <t>Vitamedic</t>
+  </si>
+  <si>
+    <t>Natulab</t>
+  </si>
+  <si>
+    <t>Neo Química</t>
+  </si>
+  <si>
+    <t>Hypofarma</t>
+  </si>
+  <si>
+    <t>Fresenius</t>
+  </si>
+  <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>Geolab</t>
+  </si>
+  <si>
+    <t>Pharlab</t>
+  </si>
+  <si>
+    <t>Greenpharma</t>
+  </si>
+  <si>
+    <t>Brasterápica</t>
+  </si>
+  <si>
+    <t>Mylan</t>
+  </si>
+  <si>
+    <t>Aché</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>Eurofarma</t>
+  </si>
+  <si>
+    <t>Osorio de Moraes</t>
+  </si>
+  <si>
+    <t>Multilab</t>
+  </si>
+  <si>
+    <t>Nova Química</t>
+  </si>
+  <si>
+    <t>Sandoz</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Pharmascience</t>
+  </si>
+  <si>
+    <t>Germed</t>
+  </si>
+  <si>
+    <t>Biolab</t>
+  </si>
+  <si>
+    <t>Ranbaxy</t>
+  </si>
+  <si>
     <t>JP</t>
   </si>
   <si>
+    <t>Halex Istar</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO NEO QUÍMICA COMÉRCIO E INDÚSTRIA LTDA</t>
+  </si>
+  <si>
+    <t>HYPOFARMA - INSTITUTO DE HYPODERMIA E FARMÁCIA LTDA</t>
+  </si>
+  <si>
+    <t>FRESENIUS KABI BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>GREENPHARMA QUÍMICA E FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MYLAN LABORATORIOS LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
     <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>HALEX ISTAR INDÚSTRIA FARMACÊUTICA SA</t>
   </si>
 </sst>
 </file>
@@ -425,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,22 +933,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,16 +959,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,16 +979,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -525,16 +999,776 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
   <si>
     <t>Item</t>
   </si>
@@ -40,85 +40,421 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
-  </si>
-  <si>
-    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
-  </si>
-  <si>
-    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
-  </si>
-  <si>
-    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
-  </si>
-  <si>
-    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
-  </si>
-  <si>
-    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
-  </si>
-  <si>
-    <t>DOXAZOSINA MESILATO 4MG</t>
-  </si>
-  <si>
-    <t>ALBENDAZOL</t>
-  </si>
-  <si>
-    <t>AMOXICILINA</t>
-  </si>
-  <si>
-    <t>CLAVULANATO DE POTÁSSIO</t>
-  </si>
-  <si>
-    <t>AZITROMICINA</t>
-  </si>
-  <si>
-    <t>DEXCLORFENIRAMINA</t>
-  </si>
-  <si>
-    <t>mesilato;doxazosina</t>
-  </si>
-  <si>
-    <t>40 mg/ml</t>
-  </si>
-  <si>
-    <t>250mg</t>
-  </si>
-  <si>
-    <t>5 mg/ml</t>
-  </si>
-  <si>
-    <t>125 mg</t>
-  </si>
-  <si>
-    <t>2mg</t>
-  </si>
-  <si>
-    <t>4mg</t>
-  </si>
-  <si>
-    <t>Geolab</t>
-  </si>
-  <si>
-    <t>Eurofarma</t>
-  </si>
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
-    <t>Pharlab</t>
+    <t xml:space="preserve">DISPOSITIVO PARA INTRODUÇÃO EM ORGÃOS CORPORAIS PARA DRENAGEM DE FLUIDOS. (SECREÇÕES OU EXCREÇÕES), FEITA EM PVC ATÓXICO SILICONADO, ESTÉRIL DESCARTÁVEL (USO ÚNICO), EMBALADAS INDIVIDUALMENTE, POSSUI A FINALIDADE DE ESVAZIAR A BEXIGA, TODAS AS SONDAS DESCARTÁVEIS SÃO COMPOSTAS DE TUBO DE PVC ATÓXICO FLEXÍVEL COM MODELO DE FURAÇÃO ESPECÍFICA (2 FUROS) E CONECTOR COM TAMPA. INFORMAÇÕES SOBRE PROCEDÊNCIA E VALIDADE IMPRESSAS EMBALAGEM, GARANTIA CONTRA DEFEITOS DE FABRICAÇÃO OU MATERIAIS. (SONDA URETAL Nº12).. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPOSITIVO PARA INTRODUÇÃO EM ÓRGÃOS CORPORAIS PARA DRENAGEM DE FLUIDOS. (SECREÇÕES OU EXCREÇÕES) FEITA EM PVC ATÓXICO SILICONADO, ESTÉRIL DESCARTÁVEL (USO ÚNICO), EMBALADAS INDIVIDUALMENTE, POSSUI A FINALIDADE DE ESVAZIAR A BEXIGA, TODAS AS SONDAS DESCARTÁVEIS SÃO COMPOSTAS DE TUBO DE PVC ATÓXICO FLEXÍVEL COM MODELO DE FURAÇÃO ESPECÍFICA (2 FUROS) E CONECTOR COM TAMPA. INFORMAÇÕES SOBRE PROCEDÊNCIA E VALIDADE IMPRESSAS EMBALAGEM, GARANTIA CONTRA DEFEITOS DE FABRICAÇÃO OU MATERIAIS. (SONDA URETAL Nº10.). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRASCO FRACIONADO PARA ADMINISTRAÇÃO DE SOLUÇÃO ENTERAIS, CAPACIDADE DE 500ML. PERMITE TRATAMENTO TÉRMICO (AQUECIMENTO, RESFRIAMENTO) DE SOLUÇÕES, COM DISPOSITIVO PARA FIXAÇÃO EM SUPORTE.( FRASCO PARA ALIMENTAÇÃO 500ML).. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPOSITIVO PARA A ADMINISTRAÇÃO. (ACESSO ENTERAL) DE FLUIDOS ALIMENTO, MEDICAMENTO, ÁGUA, NUTRIENTES, COMPOSTOS LIPÍDICOS NHPP RTC, CONTIDOS EM FRASCOS PARA O SISTEMA GASTROINTESTINAL (ACESSO ENTERAL NO PACIENTE).(EQUIPO PARA NUTRIÇÃO ENTERAL).. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIRAGLUTIDA INSULINA DEGLUDECA 100 U/ML + 3,6 MG/ML SOL INJ CT X 1 CAR VD. TRANS X 3 ML + 1 SIST APLIC PLAS (INSULINA XULTOPHY). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSULINA ASPARTE 100 U/ML SOL INJ CT 1 CAR VD TRABS X 3 ML + 1 SIST APLIC PLAS. FLEXPEN INSULINA FIASP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO DE METFORMINA 1G COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO DE METFORMINA 750MG COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO DE METFORMINA 500MG COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO DE METFORMINA 850MG COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOZAPINA 25MG COM CT BL AL PLAS TRANS X 30. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBESILATO DE CLACIO 500MG CAP DURA CT BL AL AL X 30 DOBEVEN. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMESLATO DE LISDEXANFETAMINA 70MG CAP DURA CT FR PLAS OPC X 28 VENVANSE. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMESLATO DE LISDEXANFETAMINA 50MG CAP DURA CT FR PLAS OPC X28 VENVANSE. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACITRACINA SULFATO DE NEOMICINA 5,0 MG/G + 250 UI/G POM DERM CT BG AL X 10G. NEOMICINA POMADA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXCARBAZEPINA 60 MG/ML SUS OR CT FR VD AMB X 100ML + 2 SE DOS TRILEPTAL SUS. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIPRIL 10MG COM CT BL AL X 30 NAPRIX 10MG. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIPRIL BESILATO DE ANLODIPINO 10MG + 10MG CAP GEL DURA CT FR PLAS X 30 NAPRIX. 10MG+10MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIPRIL BESILATO DE ANLODIPINO 5MG + 5MG CAP GEL DURA CT FR PLAS X 30 NAPRIX. 10MG+5MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUPRENORFINA 10MG ADES TRANSD CT ENV X 2RESTIVA 10MG. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDROCLOROTIAZIDA TELMISARTANA 80MG + 25MG COM CT BL AL/AL X 30. MICARDIS HCT 80/12,5MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALSARTANA  HIDROCLOROTIAZIDA BESILATO DE AN 160,00+12,50+10,00MG. COM REV CT BL AL AL X 2/ EXFORGE 160MG + 12,5MG+10MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALSARTANA  HIDROCLOROTIAZIDA BESILATO ANLODIPINO 320,00+25,00+10,00. MG COM REV CT BL AL AL 28 EXFORGE 320MG+25MG+10MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALSARTANA SACUBITRIL 200MG COM REV CT BL AL AL X 60. ENTRESTO 200MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALSARTANA SACUBITRIL 50MG COM REV CT BL AL AL X 28. ENTRESTO 50MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALSARTANA SACUBITRIL 100MG COM REV CT BL AL AL X 60. ENTRESTO 100MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESILATO DE ANLODIPINO PERINDOPRIL ARGININA 14MG + 10MG. COM CT TB PLAS PP OPC X 30 ACERTANLO 14MG/10MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESILATO DE ANLODIPINO PERINDOPRIL ARGININA 7MG + 5MG. COM CT TB PLAS PP OPC X 30 ACERTANLO 7MG/5MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIPIPRAZOL 1 MG/ML SUS OR CT FR PLAS PET AMB X 100ML + SER DOS ARISTAB. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO DE FEXOFENADINA ALLEGRA D DE PSEUDOEFEDRINA 60,0 + 120,0MG. COM REV LIB PROL CT BL AL PLAS PVC PE PVDC TRANS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA CONTENDO 50 TIRAS REAGENTES PARA DETECÇÃO DE GLICOSE SANGUÍNEA COMPATIVEIS. COM MONITOR DE GLICEMIA PERFORMA COMBO (INSUMOS PARA BOMBA DE INFUSÃO DE INSULINA COMPATÍVEL COM ACCU-CHEK).. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO DE MEMANTINA 10MG COM REV CT BL AL PLAS TRANS X30. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FENOFIBRATO 160MG COM REV CT BL AL PLAS PVC PE PVDC TRANS X30. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICLORIDRATO DE ZUCLOPENTIXOL CLOPIXOL 10MG. 10 MG COM REV CT BL AL PLAS TRNS X20. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO METFORMINA EMPAGLIFLOZINA 12,5+850MG COM REV CT BL AL PLAS PVC PCTFE. OPC X 60 JARDIANCE DUO 850MG+12,5MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLORIDRATO METFORMINA EMPAGLIFLOZINA 12,5+1000MG. COM REV CT BL AL PLAS PVC PCTFE OPC X60 JARDIANCE DUO 1000MG+12,5MG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROMOPRIDA 4MG/ML SOL OR CT FR GOT PLAS OPC X 20ML. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDROCLOROTIAZIDA CANDESARTANA CILEXETILA 16MG +12,5MG. COM CT BL AL PLAS TRANS X30. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANDESARTANA CILEXETILA 16MG COM CT BL AL PLAS TRANS X30. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANDESARTANA CILEXETILA 8MG COM CT BL AL PLAS TRANS X 30. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMAGLUTIDA 1,34 MG/ML SOL INJ CT X 1 CAR VD TRANS X 1,5 ML + 1. SIST APLIC PLAS DOSES 0,25MG E 0,5MG + 6 AGULHAS NOVOFINE OZEMPIC. </t>
+  </si>
+  <si>
+    <t>fluido;forma;esteril</t>
+  </si>
+  <si>
+    <t>fluido;agua</t>
+  </si>
+  <si>
+    <t>INSULINA DEGLUDECA;LIRAGLUTIDA</t>
+  </si>
+  <si>
+    <t>INSULINA ASPARTE</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE METFORMINA</t>
+  </si>
+  <si>
+    <t>CLOZAPINA</t>
+  </si>
+  <si>
+    <t>besilato</t>
+  </si>
+  <si>
+    <t>lisdexanfetamina</t>
+  </si>
+  <si>
+    <t>SULFATO DE NEOMICINA;BACITRACINA;NEOMICINA</t>
+  </si>
+  <si>
+    <t>OXCARBAZEPINA</t>
+  </si>
+  <si>
+    <t>RAMIPRIL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO;RAMIPRIL</t>
+  </si>
+  <si>
+    <t>BUPRENORFINA</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA;TELMISARTANA</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA;VALSARTANA</t>
+  </si>
+  <si>
+    <t>VALSARTANA;SACUBITRIL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO;PERINDOPRIL ARGININA</t>
+  </si>
+  <si>
+    <t>ARIPIPRAZOL</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE FEXOFENADINA;PSEUDOEFEDRINA</t>
+  </si>
+  <si>
+    <t>GLICOSE</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE MEMANTINA</t>
+  </si>
+  <si>
+    <t>FENOFIBRATO</t>
+  </si>
+  <si>
+    <t>DICLORIDRATO DE ZUCLOPENTIXOL</t>
+  </si>
+  <si>
+    <t>EMPAGLIFLOZINA</t>
+  </si>
+  <si>
+    <t>BROMOPRIDA</t>
+  </si>
+  <si>
+    <t>CANDESARTANA CILEXETILA;HIDROCLOROTIAZIDA</t>
+  </si>
+  <si>
+    <t>CANDESARTANA CILEXETILA</t>
+  </si>
+  <si>
+    <t>SEMAGLUTIDA</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>6 mg/ml</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>1g</t>
+  </si>
+  <si>
+    <t>750mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>850mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>70mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>0 mg</t>
+  </si>
+  <si>
+    <t>60 mg/ml</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>00mg</t>
+  </si>
+  <si>
+    <t>320mg</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>14mg</t>
+  </si>
+  <si>
+    <t>7mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>0mg</t>
+  </si>
+  <si>
+    <t>160mg</t>
+  </si>
+  <si>
+    <t>1000mg</t>
+  </si>
+  <si>
+    <t>4mg/ml</t>
+  </si>
+  <si>
+    <t>16mg</t>
+  </si>
+  <si>
+    <t>8mg</t>
+  </si>
+  <si>
+    <t>34 mg/ml</t>
+  </si>
+  <si>
+    <t>markmed</t>
+  </si>
+  <si>
+    <t>biobase</t>
+  </si>
+  <si>
+    <t>descarpack</t>
+  </si>
+  <si>
+    <t>novo nordisk</t>
+  </si>
+  <si>
+    <t>merck</t>
+  </si>
+  <si>
+    <t>viatriz</t>
+  </si>
+  <si>
+    <t>apsen</t>
+  </si>
+  <si>
+    <t>takeda</t>
+  </si>
+  <si>
+    <t>belfar</t>
+  </si>
+  <si>
+    <t>novartis</t>
+  </si>
+  <si>
+    <t>libbs</t>
+  </si>
+  <si>
+    <t>mundipharma</t>
+  </si>
+  <si>
+    <t>boehringer</t>
+  </si>
+  <si>
+    <t>servier</t>
+  </si>
+  <si>
+    <t>ache</t>
+  </si>
+  <si>
+    <t>sanofi</t>
+  </si>
+  <si>
+    <t>roche</t>
+  </si>
+  <si>
+    <t>geolab</t>
+  </si>
+  <si>
+    <t>abbott</t>
+  </si>
+  <si>
+    <t>lundbeck</t>
+  </si>
+  <si>
+    <t>airela</t>
+  </si>
+  <si>
+    <t>sandoz</t>
+  </si>
+  <si>
+    <t>NOVO NORDISK PRODUÇÃO FARMACÊUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>APSEN FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>TAKEDA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>LIBBS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MUNDIPHARMA BRASIL PRODUTOS MÉDICOS E FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>BOEHRINGER INGELHEIM DO BRASIL QUÍMICA E FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS SERVIER DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
   </si>
   <si>
     <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
   </si>
   <si>
-    <t>EUROFARMA LABORATÓRIOS S.A.</t>
-  </si>
-  <si>
-    <t>EMS SIGMA PHARMA LTDA</t>
-  </si>
-  <si>
-    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+    <t>ABBOTT LABORATÓRIOS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>LUNDBECK BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
   </si>
 </sst>
 </file>
@@ -476,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,142 +846,822 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="350">
   <si>
     <t>Item</t>
   </si>
@@ -40,421 +40,1030 @@
     <t>PDF</t>
   </si>
   <si>
-    <t xml:space="preserve">DISPOSITIVO PARA INTRODUÇÃO EM ORGÃOS CORPORAIS PARA DRENAGEM DE FLUIDOS. (SECREÇÕES OU EXCREÇÕES), FEITA EM PVC ATÓXICO SILICONADO, ESTÉRIL DESCARTÁVEL (USO ÚNICO), EMBALADAS INDIVIDUALMENTE, POSSUI A FINALIDADE DE ESVAZIAR A BEXIGA, TODAS AS SONDAS DESCARTÁVEIS SÃO COMPOSTAS DE TUBO DE PVC ATÓXICO FLEXÍVEL COM MODELO DE FURAÇÃO ESPECÍFICA (2 FUROS) E CONECTOR COM TAMPA. INFORMAÇÕES SOBRE PROCEDÊNCIA E VALIDADE IMPRESSAS EMBALAGEM, GARANTIA CONTRA DEFEITOS DE FABRICAÇÃO OU MATERIAIS. (SONDA URETAL Nº12).. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPOSITIVO PARA INTRODUÇÃO EM ÓRGÃOS CORPORAIS PARA DRENAGEM DE FLUIDOS. (SECREÇÕES OU EXCREÇÕES) FEITA EM PVC ATÓXICO SILICONADO, ESTÉRIL DESCARTÁVEL (USO ÚNICO), EMBALADAS INDIVIDUALMENTE, POSSUI A FINALIDADE DE ESVAZIAR A BEXIGA, TODAS AS SONDAS DESCARTÁVEIS SÃO COMPOSTAS DE TUBO DE PVC ATÓXICO FLEXÍVEL COM MODELO DE FURAÇÃO ESPECÍFICA (2 FUROS) E CONECTOR COM TAMPA. INFORMAÇÕES SOBRE PROCEDÊNCIA E VALIDADE IMPRESSAS EMBALAGEM, GARANTIA CONTRA DEFEITOS DE FABRICAÇÃO OU MATERIAIS. (SONDA URETAL Nº10.). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRASCO FRACIONADO PARA ADMINISTRAÇÃO DE SOLUÇÃO ENTERAIS, CAPACIDADE DE 500ML. PERMITE TRATAMENTO TÉRMICO (AQUECIMENTO, RESFRIAMENTO) DE SOLUÇÕES, COM DISPOSITIVO PARA FIXAÇÃO EM SUPORTE.( FRASCO PARA ALIMENTAÇÃO 500ML).. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPOSITIVO PARA A ADMINISTRAÇÃO. (ACESSO ENTERAL) DE FLUIDOS ALIMENTO, MEDICAMENTO, ÁGUA, NUTRIENTES, COMPOSTOS LIPÍDICOS NHPP RTC, CONTIDOS EM FRASCOS PARA O SISTEMA GASTROINTESTINAL (ACESSO ENTERAL NO PACIENTE).(EQUIPO PARA NUTRIÇÃO ENTERAL).. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIRAGLUTIDA INSULINA DEGLUDECA 100 U/ML + 3,6 MG/ML SOL INJ CT X 1 CAR VD. TRANS X 3 ML + 1 SIST APLIC PLAS (INSULINA XULTOPHY). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSULINA ASPARTE 100 U/ML SOL INJ CT 1 CAR VD TRABS X 3 ML + 1 SIST APLIC PLAS. FLEXPEN INSULINA FIASP. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO DE METFORMINA 1G COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO DE METFORMINA 750MG COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO DE METFORMINA 500MG COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO DE METFORMINA 850MG COM REV EST BL AL PLAS TRANS X 30 GLIFAGE. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOZAPINA 25MG COM CT BL AL PLAS TRANS X 30. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBESILATO DE CLACIO 500MG CAP DURA CT BL AL AL X 30 DOBEVEN. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMESLATO DE LISDEXANFETAMINA 70MG CAP DURA CT FR PLAS OPC X 28 VENVANSE. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMESLATO DE LISDEXANFETAMINA 50MG CAP DURA CT FR PLAS OPC X28 VENVANSE. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACITRACINA SULFATO DE NEOMICINA 5,0 MG/G + 250 UI/G POM DERM CT BG AL X 10G. NEOMICINA POMADA. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXCARBAZEPINA 60 MG/ML SUS OR CT FR VD AMB X 100ML + 2 SE DOS TRILEPTAL SUS. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMIPRIL 10MG COM CT BL AL X 30 NAPRIX 10MG. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMIPRIL BESILATO DE ANLODIPINO 10MG + 10MG CAP GEL DURA CT FR PLAS X 30 NAPRIX. 10MG+10MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMIPRIL BESILATO DE ANLODIPINO 5MG + 5MG CAP GEL DURA CT FR PLAS X 30 NAPRIX. 10MG+5MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUPRENORFINA 10MG ADES TRANSD CT ENV X 2RESTIVA 10MG. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDROCLOROTIAZIDA TELMISARTANA 80MG + 25MG COM CT BL AL/AL X 30. MICARDIS HCT 80/12,5MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALSARTANA  HIDROCLOROTIAZIDA BESILATO DE AN 160,00+12,50+10,00MG. COM REV CT BL AL AL X 2/ EXFORGE 160MG + 12,5MG+10MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALSARTANA  HIDROCLOROTIAZIDA BESILATO ANLODIPINO 320,00+25,00+10,00. MG COM REV CT BL AL AL 28 EXFORGE 320MG+25MG+10MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALSARTANA SACUBITRIL 200MG COM REV CT BL AL AL X 60. ENTRESTO 200MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALSARTANA SACUBITRIL 50MG COM REV CT BL AL AL X 28. ENTRESTO 50MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALSARTANA SACUBITRIL 100MG COM REV CT BL AL AL X 60. ENTRESTO 100MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESILATO DE ANLODIPINO PERINDOPRIL ARGININA 14MG + 10MG. COM CT TB PLAS PP OPC X 30 ACERTANLO 14MG/10MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESILATO DE ANLODIPINO PERINDOPRIL ARGININA 7MG + 5MG. COM CT TB PLAS PP OPC X 30 ACERTANLO 7MG/5MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIPIPRAZOL 1 MG/ML SUS OR CT FR PLAS PET AMB X 100ML + SER DOS ARISTAB. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO DE FEXOFENADINA ALLEGRA D DE PSEUDOEFEDRINA 60,0 + 120,0MG. COM REV LIB PROL CT BL AL PLAS PVC PE PVDC TRANS. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA CONTENDO 50 TIRAS REAGENTES PARA DETECÇÃO DE GLICOSE SANGUÍNEA COMPATIVEIS. COM MONITOR DE GLICEMIA PERFORMA COMBO (INSUMOS PARA BOMBA DE INFUSÃO DE INSULINA COMPATÍVEL COM ACCU-CHEK).. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO DE MEMANTINA 10MG COM REV CT BL AL PLAS TRANS X30. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FENOFIBRATO 160MG COM REV CT BL AL PLAS PVC PE PVDC TRANS X30. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICLORIDRATO DE ZUCLOPENTIXOL CLOPIXOL 10MG. 10 MG COM REV CT BL AL PLAS TRNS X20. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO METFORMINA EMPAGLIFLOZINA 12,5+850MG COM REV CT BL AL PLAS PVC PCTFE. OPC X 60 JARDIANCE DUO 850MG+12,5MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLORIDRATO METFORMINA EMPAGLIFLOZINA 12,5+1000MG. COM REV CT BL AL PLAS PVC PCTFE OPC X60 JARDIANCE DUO 1000MG+12,5MG. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROMOPRIDA 4MG/ML SOL OR CT FR GOT PLAS OPC X 20ML. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDROCLOROTIAZIDA CANDESARTANA CILEXETILA 16MG +12,5MG. COM CT BL AL PLAS TRANS X30. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANDESARTANA CILEXETILA 16MG COM CT BL AL PLAS TRANS X30. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANDESARTANA CILEXETILA 8MG COM CT BL AL PLAS TRANS X 30. . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMAGLUTIDA 1,34 MG/ML SOL INJ CT X 1 CAR VD TRANS X 1,5 ML + 1. SIST APLIC PLAS DOSES 0,25MG E 0,5MG + 6 AGULHAS NOVOFINE OZEMPIC. </t>
-  </si>
-  <si>
-    <t>fluido;forma;esteril</t>
-  </si>
-  <si>
-    <t>fluido;agua</t>
-  </si>
-  <si>
-    <t>INSULINA DEGLUDECA;LIRAGLUTIDA</t>
-  </si>
-  <si>
-    <t>INSULINA ASPARTE</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE METFORMINA</t>
-  </si>
-  <si>
-    <t>CLOZAPINA</t>
-  </si>
-  <si>
-    <t>besilato</t>
-  </si>
-  <si>
-    <t>lisdexanfetamina</t>
-  </si>
-  <si>
-    <t>SULFATO DE NEOMICINA;BACITRACINA;NEOMICINA</t>
-  </si>
-  <si>
-    <t>OXCARBAZEPINA</t>
-  </si>
-  <si>
-    <t>RAMIPRIL</t>
-  </si>
-  <si>
-    <t>BESILATO DE ANLODIPINO;RAMIPRIL</t>
-  </si>
-  <si>
-    <t>BUPRENORFINA</t>
-  </si>
-  <si>
-    <t>HIDROCLOROTIAZIDA;TELMISARTANA</t>
-  </si>
-  <si>
-    <t>HIDROCLOROTIAZIDA;VALSARTANA</t>
-  </si>
-  <si>
-    <t>VALSARTANA;SACUBITRIL</t>
-  </si>
-  <si>
-    <t>BESILATO DE ANLODIPINO;PERINDOPRIL ARGININA</t>
-  </si>
-  <si>
-    <t>ARIPIPRAZOL</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE FEXOFENADINA;PSEUDOEFEDRINA</t>
+    <t>ACETATO DE DEXAMETASONA CREME 1MG//G TUBO 10 G</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA SUSPENSAO INJETAVEL 150 MG/ML</t>
+  </si>
+  <si>
+    <t>ACIDO ACETILSALICILICO 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACIDO FOLICO 5MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 250MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 500 MG</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
+  </si>
+  <si>
+    <t>ALENDRONATO SODIO 70 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 100 MG</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 300 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA 500MG</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL 40MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO  5MG</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 20 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 200 MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CALCIO 500MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LITIO 300MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6,25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG/ML SHAMPOO</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA 500MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 50MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 250 MCG/DOSE SOL AER CT TB AL + DISPOSITIVO ORAL X 200 DOSES</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 2,5MG/ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SODIO 9 MG/ML SOLUCAO NASAL (NASOJET)</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA 200MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA 25 MG CAIXA COM 30</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 100MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 40MG/ML SOL OR CT FR VD GOTAS X 20ML 4%</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL 40MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL 80MG</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 1 MG/ML (0,1%) SUSPENSAO OFTALMICA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 0,4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 10 MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>DIGOXINA 0,25 MG</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500MG/ML FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA 2MG</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA MESILATO 4MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 20 MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL 1MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>FENITOINA SODICA 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL 100MG</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SODICO 40 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150 MG - CAPSULA</t>
+  </si>
+  <si>
+    <t>FLUOXETINA CLORIDRATO 20 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA 40 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG COMPRIMIDO DE LIBERACAO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICOSIMETROS (MEDIDOR DE GLICOSE)</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 1MG</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA ACETATO 10MG/G CREME DERMATOLOGICO</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 50MG/ML</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 600 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 40 MG</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL 100MG</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 100 MCG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 25 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 50 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LORATADINA 1 MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>LORATADINA 10MG</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTASSICA 50MG</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL 5MG/ML 0,5%</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO  850 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METILDOPA 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 100 MCG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 50 MG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 400 MG</t>
+  </si>
+  <si>
+    <t>MICONAZOL NITRATO 20 MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
+  </si>
+  <si>
+    <t>NITROFURANTOINA 100 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA + VALERATO DE ESTRADIOL 50 + 5 MG/ML SOLUÇÃO INJETÁVEL C/ 1 AMPOLA 1 ML</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 25 MG</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 50 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 200 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVODORA + CLORIDRATO DE BENZERAZIDA 100/25 MG BD</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40 MG</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA 10 MG/G CREME</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 40 + 8 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 400 + 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG AEROSOL ORAL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>VARFARINA SODICA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACETATO DE DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA</t>
+  </si>
+  <si>
+    <t>ÁCIDO ACETIL SALICILICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO FÓLICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO VALPRÓICO</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL</t>
+  </si>
+  <si>
+    <t>sodio;alendronato</t>
+  </si>
+  <si>
+    <t>ALOPURINOL</t>
+  </si>
+  <si>
+    <t>AMOXICILINA</t>
+  </si>
+  <si>
+    <t>CLAVULANATO DE POTÁSSIO</t>
+  </si>
+  <si>
+    <t>besilato;anlodipino</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CÁLCIO</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LÍTIO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>CEFALEXINA</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA</t>
+  </si>
+  <si>
+    <t>DIAZEPAM</t>
+  </si>
+  <si>
+    <t>DIGOXINA</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA</t>
+  </si>
+  <si>
+    <t>DIPIRONA</t>
+  </si>
+  <si>
+    <t>doxazosina</t>
+  </si>
+  <si>
+    <t>mesilato;doxazosina</t>
+  </si>
+  <si>
+    <t>maleato;enalapril</t>
+  </si>
+  <si>
+    <t>ESTRIOL</t>
+  </si>
+  <si>
+    <t>FENITOÍNA SÓDICA</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SÓDICO</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL</t>
+  </si>
+  <si>
+    <t>FLUOXETINA</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA</t>
   </si>
   <si>
     <t>GLICOSE</t>
   </si>
   <si>
-    <t>CLORIDRATO DE MEMANTINA</t>
-  </si>
-  <si>
-    <t>FENOFIBRATO</t>
-  </si>
-  <si>
-    <t>DICLORIDRATO DE ZUCLOPENTIXOL</t>
-  </si>
-  <si>
-    <t>EMPAGLIFLOZINA</t>
-  </si>
-  <si>
-    <t>BROMOPRIDA</t>
-  </si>
-  <si>
-    <t>CANDESARTANA CILEXETILA;HIDROCLOROTIAZIDA</t>
-  </si>
-  <si>
-    <t>CANDESARTANA CILEXETILA</t>
-  </si>
-  <si>
-    <t>SEMAGLUTIDA</t>
+    <t>HALOPERIDOL</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA</t>
+  </si>
+  <si>
+    <t>IBUPROFENO</t>
+  </si>
+  <si>
+    <t>mononitrato;isossorbida</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL</t>
+  </si>
+  <si>
+    <t>IVERMECTINA</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SÓDICA</t>
+  </si>
+  <si>
+    <t>LORATADINA</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTÁSSICA</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL</t>
+  </si>
+  <si>
+    <t>cloridrato;metformina</t>
+  </si>
+  <si>
+    <t>METILDOPA</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA</t>
+  </si>
+  <si>
+    <t>succinato;metoprolol</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL</t>
+  </si>
+  <si>
+    <t>MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITROFURANTOÍNA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA;VALERATO DE ESTRADIOL</t>
+  </si>
+  <si>
+    <t>cloridrato;nortriptilina</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL</t>
+  </si>
+  <si>
+    <t>PREDNISONA</t>
+  </si>
+  <si>
+    <t>cloridrato</t>
+  </si>
+  <si>
+    <t>SINVASTATINA</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO</t>
+  </si>
+  <si>
+    <t>VARFARINA SÓDICA</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>150 mg/ml</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>250mg</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>40 mg/ml</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>70 mg</t>
+  </si>
+  <si>
+    <t>300 mg</t>
+  </si>
+  <si>
+    <t>5 mg/ml</t>
+  </si>
+  <si>
+    <t>125 mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>20 mg/ml</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>20mg/ml</t>
+  </si>
+  <si>
+    <t>200mcg</t>
+  </si>
+  <si>
+    <t>50mcg</t>
+  </si>
+  <si>
+    <t>250 mcg</t>
+  </si>
+  <si>
+    <t>5mg/ml</t>
+  </si>
+  <si>
+    <t>9 mg/ml</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>4 mg/ml</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>500mg/ml</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>150 mg</t>
+  </si>
+  <si>
+    <t>3mg/ml</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>30 mg</t>
+  </si>
+  <si>
+    <t>60mg</t>
   </si>
   <si>
     <t>Concentração não encontrada</t>
   </si>
   <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>6 mg/ml</t>
-  </si>
-  <si>
-    <t>3 ml</t>
-  </si>
-  <si>
-    <t>1g</t>
-  </si>
-  <si>
-    <t>750mg</t>
-  </si>
-  <si>
-    <t>500mg</t>
-  </si>
-  <si>
-    <t>850mg</t>
-  </si>
-  <si>
-    <t>25mg</t>
-  </si>
-  <si>
-    <t>70mg</t>
-  </si>
-  <si>
-    <t>50mg</t>
-  </si>
-  <si>
-    <t>0 mg</t>
-  </si>
-  <si>
-    <t>60 mg/ml</t>
-  </si>
-  <si>
     <t>10mg</t>
   </si>
   <si>
-    <t>5mg</t>
-  </si>
-  <si>
-    <t>80mg</t>
-  </si>
-  <si>
-    <t>00mg</t>
-  </si>
-  <si>
-    <t>320mg</t>
-  </si>
-  <si>
-    <t>200mg</t>
-  </si>
-  <si>
-    <t>100mg</t>
-  </si>
-  <si>
-    <t>14mg</t>
-  </si>
-  <si>
-    <t>7mg</t>
-  </si>
-  <si>
-    <t>1 mg/ml</t>
-  </si>
-  <si>
-    <t>0mg</t>
-  </si>
-  <si>
-    <t>160mg</t>
-  </si>
-  <si>
-    <t>1000mg</t>
-  </si>
-  <si>
-    <t>4mg/ml</t>
-  </si>
-  <si>
-    <t>16mg</t>
-  </si>
-  <si>
-    <t>8mg</t>
-  </si>
-  <si>
-    <t>34 mg/ml</t>
-  </si>
-  <si>
-    <t>markmed</t>
-  </si>
-  <si>
-    <t>biobase</t>
-  </si>
-  <si>
-    <t>descarpack</t>
-  </si>
-  <si>
-    <t>novo nordisk</t>
-  </si>
-  <si>
-    <t>merck</t>
-  </si>
-  <si>
-    <t>viatriz</t>
-  </si>
-  <si>
-    <t>apsen</t>
-  </si>
-  <si>
-    <t>takeda</t>
-  </si>
-  <si>
-    <t>belfar</t>
-  </si>
-  <si>
-    <t>novartis</t>
-  </si>
-  <si>
-    <t>libbs</t>
-  </si>
-  <si>
-    <t>mundipharma</t>
-  </si>
-  <si>
-    <t>boehringer</t>
-  </si>
-  <si>
-    <t>servier</t>
-  </si>
-  <si>
-    <t>ache</t>
-  </si>
-  <si>
-    <t>sanofi</t>
-  </si>
-  <si>
-    <t>roche</t>
-  </si>
-  <si>
-    <t>geolab</t>
-  </si>
-  <si>
-    <t>abbott</t>
-  </si>
-  <si>
-    <t>lundbeck</t>
-  </si>
-  <si>
-    <t>airela</t>
-  </si>
-  <si>
-    <t>sandoz</t>
-  </si>
-  <si>
-    <t>NOVO NORDISK PRODUÇÃO FARMACÊUTICA DO BRASIL LTDA</t>
+    <t>50mg/ml</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>6mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>25 mcg</t>
+  </si>
+  <si>
+    <t>50 mcg</t>
+  </si>
+  <si>
+    <t>850 mg</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>100mcg</t>
+  </si>
+  <si>
+    <t>125 mg/ml</t>
+  </si>
+  <si>
+    <t>Osório de Moraes</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Brasterápica</t>
+  </si>
+  <si>
+    <t>Geolab</t>
+  </si>
+  <si>
+    <t>Biolab</t>
+  </si>
+  <si>
+    <t>Cellera</t>
+  </si>
+  <si>
+    <t>Sandoz</t>
+  </si>
+  <si>
+    <t>Eurofarma</t>
+  </si>
+  <si>
+    <t>Brainfarma</t>
+  </si>
+  <si>
+    <t>Vitamedic</t>
+  </si>
+  <si>
+    <t>Pharlab</t>
+  </si>
+  <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>Germed</t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>Nova Química</t>
+  </si>
+  <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>Chiesi</t>
+  </si>
+  <si>
+    <t>Natulab</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>Airela</t>
+  </si>
+  <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>Medquímica</t>
+  </si>
+  <si>
+    <t>Aché</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>Legrand</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Multilab</t>
+  </si>
+  <si>
+    <t>Cifarma</t>
+  </si>
+  <si>
+    <t>Ranbaxy</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>Pharmascience</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>União Química</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
   </si>
   <si>
     <t>MERCK S/A</t>
   </si>
   <si>
-    <t>APSEN FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>TAKEDA PHARMA LTDA</t>
-  </si>
-  <si>
-    <t>BELFAR LTDA</t>
-  </si>
-  <si>
-    <t>NOVARTIS BIOCIENCIAS S.A</t>
-  </si>
-  <si>
-    <t>LIBBS FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>MUNDIPHARMA BRASIL PRODUTOS MÉDICOS E FARMACÊUTICOS LTDA</t>
-  </si>
-  <si>
-    <t>BOEHRINGER INGELHEIM DO BRASIL QUÍMICA E FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>LABORATÓRIOS SERVIER DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
   </si>
   <si>
     <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
   </si>
   <si>
-    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
-  </si>
-  <si>
-    <t>ABBOTT LABORATÓRIOS DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>LUNDBECK BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
   </si>
 </sst>
 </file>
@@ -812,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,16 +1461,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -872,796 +1481,2496 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
       <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" t="s">
+        <v>284</v>
+      </c>
+      <c r="F53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
+      </c>
+      <c r="F54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" t="s">
+        <v>288</v>
+      </c>
+      <c r="F62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>290</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" t="s">
+        <v>284</v>
+      </c>
+      <c r="F66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
+        <v>303</v>
+      </c>
+      <c r="F69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" t="s">
+        <v>304</v>
+      </c>
+      <c r="F75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" t="s">
+        <v>304</v>
+      </c>
+      <c r="F81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" t="s">
+        <v>307</v>
+      </c>
+      <c r="F87" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" t="s">
+        <v>294</v>
+      </c>
+      <c r="F88" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" t="s">
+        <v>291</v>
+      </c>
+      <c r="F94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" t="s">
+        <v>284</v>
+      </c>
+      <c r="F96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
         <v>106</v>
       </c>
-      <c r="E42" t="s">
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" t="s">
+        <v>292</v>
+      </c>
+      <c r="F99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
         <v>110</v>
       </c>
-      <c r="F42" t="s">
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" t="s">
+        <v>285</v>
+      </c>
+      <c r="F102" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>258</v>
+      </c>
+      <c r="E105" t="s">
+        <v>292</v>
+      </c>
+      <c r="F105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>258</v>
+      </c>
+      <c r="E106" t="s">
+        <v>297</v>
+      </c>
+      <c r="F106" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
+        <v>310</v>
+      </c>
+      <c r="F108" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" t="s">
+        <v>311</v>
+      </c>
+      <c r="F109" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" t="s">
+        <v>311</v>
+      </c>
+      <c r="F110" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" t="s">
+        <v>284</v>
+      </c>
+      <c r="F111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" t="s">
+        <v>284</v>
+      </c>
+      <c r="F112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E113" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
+        <v>258</v>
+      </c>
+      <c r="E114" t="s">
+        <v>312</v>
+      </c>
+      <c r="F114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" t="s">
+        <v>296</v>
+      </c>
+      <c r="F115" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" t="s">
+        <v>313</v>
+      </c>
+      <c r="F116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" t="s">
+        <v>313</v>
+      </c>
+      <c r="F117" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" t="s">
+        <v>291</v>
+      </c>
+      <c r="F118" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119" t="s">
+        <v>296</v>
+      </c>
+      <c r="F119" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
         <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120" t="s">
+        <v>261</v>
+      </c>
+      <c r="E120" t="s">
+        <v>293</v>
+      </c>
+      <c r="F120" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" t="s">
+        <v>297</v>
+      </c>
+      <c r="F121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" t="s">
+        <v>277</v>
+      </c>
+      <c r="E122" t="s">
+        <v>282</v>
+      </c>
+      <c r="F122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" t="s">
+        <v>290</v>
+      </c>
+      <c r="F123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" t="s">
+        <v>314</v>
+      </c>
+      <c r="F124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" t="s">
+        <v>315</v>
+      </c>
+      <c r="F125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" t="s">
+        <v>264</v>
+      </c>
+      <c r="E126" t="s">
+        <v>306</v>
+      </c>
+      <c r="F126" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -40,34 +40,73 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+    <t>RISPERIDONA 3MG</t>
+  </si>
+  <si>
+    <t>RISPERIDONA 1MG</t>
+  </si>
+  <si>
+    <t>LEVOMEPROMAZINA 4% GOTAS</t>
+  </si>
+  <si>
+    <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO +SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
+  </si>
+  <si>
+    <t>RISPERIDONA</t>
+  </si>
+  <si>
+    <t>levomepromazina</t>
+  </si>
+  <si>
+    <t>LIDOCAÍNA</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO;SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE</t>
+  </si>
+  <si>
+    <t>3mg</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>Vitamedic</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
   </si>
 </sst>
 </file>
@@ -425,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,82 +498,122 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -40,73 +40,34 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>RISPERIDONA 3MG</t>
-  </si>
-  <si>
-    <t>RISPERIDONA 1MG</t>
-  </si>
-  <si>
-    <t>LEVOMEPROMAZINA 4% GOTAS</t>
-  </si>
-  <si>
-    <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
-  </si>
-  <si>
-    <t>NITRATO DE CERIO +SULFADIAZINA</t>
-  </si>
-  <si>
-    <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
-  </si>
-  <si>
-    <t>RISPERIDONA</t>
-  </si>
-  <si>
-    <t>levomepromazina</t>
-  </si>
-  <si>
-    <t>LIDOCAÍNA</t>
-  </si>
-  <si>
-    <t>NITRATO DE CERIO;SULFADIAZINA</t>
-  </si>
-  <si>
-    <t>COLAGENASE</t>
-  </si>
-  <si>
-    <t>3mg</t>
-  </si>
-  <si>
-    <t>1mg</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>2%</t>
-  </si>
-  <si>
-    <t>Concentração não encontrada</t>
-  </si>
-  <si>
-    <t>30g</t>
-  </si>
-  <si>
-    <t>Vitamedic</t>
-  </si>
-  <si>
-    <t>Sanofi</t>
-  </si>
-  <si>
-    <t>Cristália</t>
-  </si>
-  <si>
-    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
+  </si>
+  <si>
+    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
+  </si>
+  <si>
+    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO;GLICOSE</t>
+  </si>
+  <si>
+    <t>1000ml</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
   </si>
 </sst>
 </file>
@@ -464,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,122 +459,82 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_proc_dados.xlsx
+++ b/relatorio_proc_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="350">
   <si>
     <t>Item</t>
   </si>
@@ -40,34 +40,1030 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+    <t>ACETATO DE DEXAMETASONA CREME 1MG//G TUBO 10 G</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA SUSPENSAO INJETAVEL 150 MG/ML</t>
+  </si>
+  <si>
+    <t>ACIDO ACETILSALICILICO 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACIDO FOLICO 5MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 250MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 500 MG</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
+  </si>
+  <si>
+    <t>ALENDRONATO SODIO 70 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 100 MG</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 300 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA 500MG</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL 40MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO  5MG</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 20 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 200 MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CALCIO 500MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LITIO 300MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6,25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG/ML SHAMPOO</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA 500MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 50MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 250 MCG/DOSE SOL AER CT TB AL + DISPOSITIVO ORAL X 200 DOSES</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 2,5MG/ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SODIO 9 MG/ML SOLUCAO NASAL (NASOJET)</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA 200MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA 25 MG CAIXA COM 30</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 100MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 40MG/ML SOL OR CT FR VD GOTAS X 20ML 4%</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL 40MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL 80MG</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 1 MG/ML (0,1%) SUSPENSAO OFTALMICA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 0,4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 10 MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>DIGOXINA 0,25 MG</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500MG/ML FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA 2MG</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA MESILATO 4MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 20 MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL 1MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>FENITOINA SODICA 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL 100MG</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SODICO 40 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150 MG - CAPSULA</t>
+  </si>
+  <si>
+    <t>FLUOXETINA CLORIDRATO 20 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA 40 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG COMPRIMIDO DE LIBERACAO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICOSIMETROS (MEDIDOR DE GLICOSE)</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 1MG</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA ACETATO 10MG/G CREME DERMATOLOGICO</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 50MG/ML</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 600 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 40 MG</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL 100MG</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 100 MCG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 25 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 50 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LORATADINA 1 MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>LORATADINA 10MG</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTASSICA 50MG</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL 5MG/ML 0,5%</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO  850 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METILDOPA 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 100 MCG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 50 MG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 400 MG</t>
+  </si>
+  <si>
+    <t>MICONAZOL NITRATO 20 MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
+  </si>
+  <si>
+    <t>NITROFURANTOINA 100 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA + VALERATO DE ESTRADIOL 50 + 5 MG/ML SOLUÇÃO INJETÁVEL C/ 1 AMPOLA 1 ML</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 25 MG</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 50 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 200 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVODORA + CLORIDRATO DE BENZERAZIDA 100/25 MG BD</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40 MG</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA 10 MG/G CREME</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 40 + 8 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 400 + 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG AEROSOL ORAL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>VARFARINA SODICA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACETATO DE DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA</t>
+  </si>
+  <si>
+    <t>ÁCIDO ACETIL SALICILICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO FÓLICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO VALPRÓICO</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL</t>
+  </si>
+  <si>
+    <t>sodio;alendronato</t>
+  </si>
+  <si>
+    <t>ALOPURINOL</t>
+  </si>
+  <si>
+    <t>AMOXICILINA</t>
+  </si>
+  <si>
+    <t>CLAVULANATO DE POTÁSSIO</t>
+  </si>
+  <si>
+    <t>besilato;anlodipino</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CÁLCIO</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LÍTIO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>CEFALEXINA</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA</t>
+  </si>
+  <si>
+    <t>DIAZEPAM</t>
+  </si>
+  <si>
+    <t>DIGOXINA</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA</t>
+  </si>
+  <si>
+    <t>DIPIRONA</t>
+  </si>
+  <si>
+    <t>doxazosina</t>
+  </si>
+  <si>
+    <t>mesilato;doxazosina</t>
+  </si>
+  <si>
+    <t>maleato;enalapril</t>
+  </si>
+  <si>
+    <t>ESTRIOL</t>
+  </si>
+  <si>
+    <t>FENITOÍNA SÓDICA</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SÓDICO</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL</t>
+  </si>
+  <si>
+    <t>FLUOXETINA</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA</t>
+  </si>
+  <si>
+    <t>GLICOSE</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA</t>
+  </si>
+  <si>
+    <t>IBUPROFENO</t>
+  </si>
+  <si>
+    <t>mononitrato;isossorbida</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL</t>
+  </si>
+  <si>
+    <t>IVERMECTINA</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SÓDICA</t>
+  </si>
+  <si>
+    <t>LORATADINA</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTÁSSICA</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL</t>
+  </si>
+  <si>
+    <t>cloridrato;metformina</t>
+  </si>
+  <si>
+    <t>METILDOPA</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA</t>
+  </si>
+  <si>
+    <t>succinato;metoprolol</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL</t>
+  </si>
+  <si>
+    <t>MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITROFURANTOÍNA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA;VALERATO DE ESTRADIOL</t>
+  </si>
+  <si>
+    <t>cloridrato;nortriptilina</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL</t>
+  </si>
+  <si>
+    <t>PREDNISONA</t>
+  </si>
+  <si>
+    <t>cloridrato</t>
+  </si>
+  <si>
+    <t>SINVASTATINA</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO</t>
+  </si>
+  <si>
+    <t>VARFARINA SÓDICA</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>150 mg/ml</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>250mg</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>40 mg/ml</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>70 mg</t>
+  </si>
+  <si>
+    <t>300 mg</t>
+  </si>
+  <si>
+    <t>5 mg/ml</t>
+  </si>
+  <si>
+    <t>125 mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>20 mg/ml</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>20mg/ml</t>
+  </si>
+  <si>
+    <t>200mcg</t>
+  </si>
+  <si>
+    <t>50mcg</t>
+  </si>
+  <si>
+    <t>250 mcg</t>
+  </si>
+  <si>
+    <t>5mg/ml</t>
+  </si>
+  <si>
+    <t>9 mg/ml</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>4 mg/ml</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>500mg/ml</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>150 mg</t>
+  </si>
+  <si>
+    <t>3mg/ml</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>30 mg</t>
+  </si>
+  <si>
+    <t>60mg</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>50mg/ml</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>6mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>25 mcg</t>
+  </si>
+  <si>
+    <t>50 mcg</t>
+  </si>
+  <si>
+    <t>850 mg</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>100mcg</t>
+  </si>
+  <si>
+    <t>125 mg/ml</t>
+  </si>
+  <si>
+    <t>Osório de Moraes</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Brasterápica</t>
+  </si>
+  <si>
+    <t>Geolab</t>
+  </si>
+  <si>
+    <t>Biolab</t>
+  </si>
+  <si>
+    <t>Cellera</t>
+  </si>
+  <si>
+    <t>Sandoz</t>
+  </si>
+  <si>
+    <t>Eurofarma</t>
+  </si>
+  <si>
+    <t>Brainfarma</t>
+  </si>
+  <si>
+    <t>Vitamedic</t>
+  </si>
+  <si>
+    <t>Pharlab</t>
+  </si>
+  <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>Germed</t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>Nova Química</t>
+  </si>
+  <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>Chiesi</t>
+  </si>
+  <si>
+    <t>Natulab</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>Airela</t>
+  </si>
+  <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>Medquímica</t>
+  </si>
+  <si>
+    <t>Aché</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>Legrand</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Multilab</t>
+  </si>
+  <si>
+    <t>Cifarma</t>
+  </si>
+  <si>
+    <t>Ranbaxy</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>Pharmascience</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>União Química</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
+  </si>
+  <si>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
   </si>
 </sst>
 </file>
@@ -425,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,82 +1455,2522 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" t="s">
+        <v>291</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" t="s">
+        <v>284</v>
+      </c>
+      <c r="F53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
+      </c>
+      <c r="F54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" t="s">
+        <v>288</v>
+      </c>
+      <c r="F62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>290</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" t="s">
+        <v>284</v>
+      </c>
+      <c r="F66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
+        <v>303</v>
+      </c>
+      <c r="F69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" t="s">
+        <v>304</v>
+      </c>
+      <c r="F75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" t="s">
+        <v>304</v>
+      </c>
+      <c r="F81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" t="s">
+        <v>307</v>
+      </c>
+      <c r="F87" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" t="s">
+        <v>294</v>
+      </c>
+      <c r="F88" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" t="s">
+        <v>291</v>
+      </c>
+      <c r="F94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" t="s">
+        <v>284</v>
+      </c>
+      <c r="F96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" t="s">
+        <v>292</v>
+      </c>
+      <c r="F99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" t="s">
+        <v>285</v>
+      </c>
+      <c r="F102" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>258</v>
+      </c>
+      <c r="E105" t="s">
+        <v>292</v>
+      </c>
+      <c r="F105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>258</v>
+      </c>
+      <c r="E106" t="s">
+        <v>297</v>
+      </c>
+      <c r="F106" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
+        <v>310</v>
+      </c>
+      <c r="F108" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" t="s">
+        <v>311</v>
+      </c>
+      <c r="F109" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" t="s">
+        <v>311</v>
+      </c>
+      <c r="F110" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" t="s">
+        <v>284</v>
+      </c>
+      <c r="F111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" t="s">
+        <v>284</v>
+      </c>
+      <c r="F112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E113" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
+        <v>258</v>
+      </c>
+      <c r="E114" t="s">
+        <v>312</v>
+      </c>
+      <c r="F114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" t="s">
+        <v>296</v>
+      </c>
+      <c r="F115" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" t="s">
+        <v>313</v>
+      </c>
+      <c r="F116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" t="s">
+        <v>313</v>
+      </c>
+      <c r="F117" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" t="s">
+        <v>291</v>
+      </c>
+      <c r="F118" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119" t="s">
+        <v>296</v>
+      </c>
+      <c r="F119" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120" t="s">
+        <v>261</v>
+      </c>
+      <c r="E120" t="s">
+        <v>293</v>
+      </c>
+      <c r="F120" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" t="s">
+        <v>297</v>
+      </c>
+      <c r="F121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" t="s">
+        <v>277</v>
+      </c>
+      <c r="E122" t="s">
+        <v>282</v>
+      </c>
+      <c r="F122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" t="s">
+        <v>290</v>
+      </c>
+      <c r="F123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" t="s">
+        <v>314</v>
+      </c>
+      <c r="F124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" t="s">
+        <v>315</v>
+      </c>
+      <c r="F125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" t="s">
+        <v>264</v>
+      </c>
+      <c r="E126" t="s">
+        <v>306</v>
+      </c>
+      <c r="F126" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
